--- a/ECZYT (TRY).xlsx
+++ b/ECZYT (TRY).xlsx
@@ -4755,6 +4755,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>697512758</v>
+      </c>
       <c r="C108">
         <v>577473370.801936</v>
       </c>
